--- a/INTLINE/data/136/ISTAT/Consumer confidence Index SA_historical.xlsx
+++ b/INTLINE/data/136/ISTAT/Consumer confidence Index SA_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RR26"/>
+  <dimension ref="A1:RS26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2792,6 +2792,11 @@
           <t>2022-05</t>
         </is>
       </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4251,6 +4256,9 @@
       </c>
       <c r="RR2" t="n">
         <v>102.7</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>98.3</v>
       </c>
     </row>
     <row r="3">
@@ -5400,6 +5408,9 @@
       <c r="RR3" t="n">
         <v>107</v>
       </c>
+      <c r="RS3" t="n">
+        <v>99.59999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5681,13 +5692,13 @@
         <v>108.7</v>
       </c>
       <c r="GO4" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="GP4" t="n">
-        <v>112.9</v>
+        <v>113</v>
       </c>
       <c r="GQ4" t="n">
-        <v>113.5</v>
+        <v>113.7</v>
       </c>
       <c r="GR4" t="n">
         <v>108.3</v>
@@ -5696,7 +5707,7 @@
         <v>105</v>
       </c>
       <c r="GT4" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="GU4" t="n">
         <v>108.2</v>
@@ -5717,22 +5728,22 @@
         <v>107</v>
       </c>
       <c r="HA4" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="HB4" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="HC4" t="n">
-        <v>105.7</v>
+        <v>105.9</v>
       </c>
       <c r="HD4" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="HE4" t="n">
         <v>106.5</v>
       </c>
       <c r="HF4" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="HG4" t="n">
         <v>109.5</v>
@@ -5753,25 +5764,25 @@
         <v>110.8</v>
       </c>
       <c r="HM4" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="HN4" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="HO4" t="n">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="HP4" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="HQ4" t="n">
         <v>111.9</v>
       </c>
       <c r="HR4" t="n">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="HS4" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="HT4" t="n">
         <v>107.8</v>
@@ -5789,25 +5800,25 @@
         <v>111.1</v>
       </c>
       <c r="HY4" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="HZ4" t="n">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="IA4" t="n">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="IB4" t="n">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="IC4" t="n">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="ID4" t="n">
         <v>110.4</v>
       </c>
       <c r="IE4" t="n">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="IF4" t="n">
         <v>112.2</v>
@@ -5819,31 +5830,31 @@
         <v>113</v>
       </c>
       <c r="II4" t="n">
-        <v>114.5</v>
+        <v>114.4</v>
       </c>
       <c r="IJ4" t="n">
         <v>110.9</v>
       </c>
       <c r="IK4" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="IL4" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="IM4" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="IN4" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="IO4" t="n">
         <v>103.9</v>
       </c>
       <c r="IP4" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="IQ4" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="IR4" t="n">
         <v>98.09999999999999</v>
@@ -5855,7 +5866,7 @@
         <v>95</v>
       </c>
       <c r="IU4" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="IV4" t="n">
         <v>98.8</v>
@@ -5867,10 +5878,10 @@
         <v>96.7</v>
       </c>
       <c r="IY4" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="IZ4" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="JA4" t="n">
         <v>99.40000000000001</v>
@@ -5879,7 +5890,7 @@
         <v>96.90000000000001</v>
       </c>
       <c r="JC4" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="JD4" t="n">
         <v>94.09999999999999</v>
@@ -5888,10 +5899,10 @@
         <v>96.40000000000001</v>
       </c>
       <c r="JF4" t="n">
-        <v>91.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="JG4" t="n">
-        <v>91.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="JH4" t="n">
         <v>92.7</v>
@@ -5900,10 +5911,10 @@
         <v>94.90000000000001</v>
       </c>
       <c r="JJ4" t="n">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="JK4" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="JL4" t="n">
         <v>94.40000000000001</v>
@@ -5912,10 +5923,10 @@
         <v>94.09999999999999</v>
       </c>
       <c r="JN4" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="JO4" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="JP4" t="n">
         <v>96.7</v>
@@ -5936,10 +5947,10 @@
         <v>96.2</v>
       </c>
       <c r="JV4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="JW4" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="JX4" t="n">
         <v>94.2</v>
@@ -5951,10 +5962,10 @@
         <v>96.90000000000001</v>
       </c>
       <c r="KA4" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="KB4" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="KC4" t="n">
         <v>97.8</v>
@@ -5975,19 +5986,19 @@
         <v>101.9</v>
       </c>
       <c r="KI4" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="KJ4" t="n">
         <v>102.5</v>
       </c>
       <c r="KK4" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="KL4" t="n">
         <v>102.2</v>
       </c>
       <c r="KM4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="KN4" t="n">
         <v>100.2</v>
@@ -6002,7 +6013,7 @@
         <v>106.8</v>
       </c>
       <c r="KR4" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="KS4" t="n">
         <v>103.3</v>
@@ -6029,7 +6040,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="LA4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="LB4" t="n">
         <v>96.8</v>
@@ -6083,7 +6094,7 @@
         <v>99</v>
       </c>
       <c r="LS4" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="LT4" t="n">
         <v>99.5</v>
@@ -6122,13 +6133,13 @@
         <v>96.59999999999999</v>
       </c>
       <c r="MF4" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="MG4" t="n">
         <v>100.9</v>
       </c>
       <c r="MH4" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="MI4" t="n">
         <v>100.3</v>
@@ -6137,22 +6148,22 @@
         <v>99.2</v>
       </c>
       <c r="MK4" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="ML4" t="n">
         <v>101.4</v>
       </c>
       <c r="MM4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="MN4" t="n">
         <v>100.5</v>
       </c>
       <c r="MO4" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="MP4" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="MQ4" t="n">
         <v>102.3</v>
@@ -6224,7 +6235,7 @@
         <v>83.90000000000001</v>
       </c>
       <c r="NN4" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="NO4" t="n">
         <v>94.09999999999999</v>
@@ -6236,7 +6247,7 @@
         <v>95.8</v>
       </c>
       <c r="NR4" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="NS4" t="n">
         <v>94.40000000000001</v>
@@ -6257,16 +6268,16 @@
         <v>96</v>
       </c>
       <c r="NY4" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="NZ4" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="OA4" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="OB4" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="OC4" t="n">
         <v>98</v>
@@ -6293,22 +6304,22 @@
         <v>110.5</v>
       </c>
       <c r="OK4" t="n">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="OL4" t="n">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="OM4" t="n">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="ON4" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="OO4" t="n">
         <v>106.5</v>
       </c>
       <c r="OP4" t="n">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="OQ4" t="n">
         <v>113.7</v>
@@ -6317,7 +6328,7 @@
         <v>117.6</v>
       </c>
       <c r="OS4" t="n">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="OT4" t="n">
         <v>115.8</v>
@@ -6326,28 +6337,28 @@
         <v>112.3</v>
       </c>
       <c r="OV4" t="n">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="OW4" t="n">
-        <v>117</v>
+        <v>116.9</v>
       </c>
       <c r="OX4" t="n">
-        <v>111.3</v>
+        <v>111.1</v>
       </c>
       <c r="OY4" t="n">
         <v>112.4</v>
       </c>
       <c r="OZ4" t="n">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="PA4" t="n">
         <v>113.1</v>
       </c>
       <c r="PB4" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="PC4" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="PD4" t="n">
         <v>105.1</v>
@@ -6356,34 +6367,34 @@
         <v>108.3</v>
       </c>
       <c r="PF4" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="PG4" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="PH4" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="PI4" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="PJ4" t="n">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="PK4" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="PL4" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="PM4" t="n">
         <v>111.7</v>
       </c>
       <c r="PN4" t="n">
-        <v>112.4</v>
+        <v>112.6</v>
       </c>
       <c r="PO4" t="n">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="PP4" t="n">
         <v>113.9</v>
@@ -6398,13 +6409,13 @@
         <v>115.5</v>
       </c>
       <c r="PT4" t="n">
-        <v>117.4</v>
+        <v>117.3</v>
       </c>
       <c r="PU4" t="n">
-        <v>117.9</v>
+        <v>117.8</v>
       </c>
       <c r="PV4" t="n">
-        <v>116.2</v>
+        <v>116</v>
       </c>
       <c r="PW4" t="n">
         <v>115.8</v>
@@ -6416,10 +6427,10 @@
         <v>114.8</v>
       </c>
       <c r="PZ4" t="n">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="QA4" t="n">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="QB4" t="n">
         <v>113.1</v>
@@ -6434,28 +6445,28 @@
         <v>110</v>
       </c>
       <c r="QF4" t="n">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="QG4" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="QH4" t="n">
-        <v>110.6</v>
+        <v>110.4</v>
       </c>
       <c r="QI4" t="n">
         <v>111.6</v>
       </c>
       <c r="QJ4" t="n">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="QK4" t="n">
         <v>109.8</v>
       </c>
       <c r="QL4" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="QM4" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="QN4" t="n">
         <v>106.3</v>
@@ -6470,32 +6481,32 @@
         <v>110.5</v>
       </c>
       <c r="QR4" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="QS4" t="inlineStr"/>
       <c r="QT4" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="QU4" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="QV4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="QW4" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="QX4" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="QY4" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="QZ4" t="n">
         <v>97.7</v>
       </c>
       <c r="RA4" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="RB4" t="n">
         <v>99.40000000000001</v>
@@ -6504,31 +6515,31 @@
         <v>103.2</v>
       </c>
       <c r="RD4" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="RE4" t="n">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="RF4" t="n">
-        <v>110.1</v>
+        <v>109.9</v>
       </c>
       <c r="RG4" t="n">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="RH4" t="n">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="RI4" t="n">
         <v>115.4</v>
       </c>
       <c r="RJ4" t="n">
-        <v>116.2</v>
+        <v>116.4</v>
       </c>
       <c r="RK4" t="n">
-        <v>117.6</v>
+        <v>117.8</v>
       </c>
       <c r="RL4" t="n">
-        <v>117.9</v>
+        <v>118</v>
       </c>
       <c r="RM4" t="n">
         <v>119.4</v>
@@ -6540,13 +6551,16 @@
         <v>111.8</v>
       </c>
       <c r="RP4" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="RQ4" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="RR4" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
+      </c>
+      <c r="RS4" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -7696,6 +7710,9 @@
       <c r="RR5" t="n">
         <v>102</v>
       </c>
+      <c r="RS5" t="n">
+        <v>97.40000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -8844,6 +8861,9 @@
       <c r="RR6" t="n">
         <v>101</v>
       </c>
+      <c r="RS6" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -9992,6 +10012,9 @@
       <c r="RR7" t="n">
         <v>102.4</v>
       </c>
+      <c r="RS7" t="n">
+        <v>99.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -11140,6 +11163,9 @@
       <c r="RR8" t="n">
         <v>106.5</v>
       </c>
+      <c r="RS8" t="n">
+        <v>101.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -12288,6 +12314,9 @@
       <c r="RR9" t="n">
         <v>100.1</v>
       </c>
+      <c r="RS9" t="n">
+        <v>100.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -13436,6 +13465,9 @@
       <c r="RR10" t="n">
         <v>102.8</v>
       </c>
+      <c r="RS10" t="n">
+        <v>99.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -14584,6 +14616,9 @@
       <c r="RR11" t="n">
         <v>99.90000000000001</v>
       </c>
+      <c r="RS11" t="n">
+        <v>97.90000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -15732,6 +15767,9 @@
       <c r="RR12" t="n">
         <v>103.6</v>
       </c>
+      <c r="RS12" t="n">
+        <v>93.90000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -16880,6 +16918,9 @@
       <c r="RR13" t="n">
         <v>108.5</v>
       </c>
+      <c r="RS13" t="n">
+        <v>93.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -17155,22 +17196,22 @@
         <v>133.9</v>
       </c>
       <c r="GM14" t="n">
-        <v>127.4</v>
+        <v>127.3</v>
       </c>
       <c r="GN14" t="n">
-        <v>128.3</v>
+        <v>128.2</v>
       </c>
       <c r="GO14" t="n">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="GP14" t="n">
-        <v>140.5</v>
+        <v>140.4</v>
       </c>
       <c r="GQ14" t="n">
-        <v>134.5</v>
+        <v>134.6</v>
       </c>
       <c r="GR14" t="n">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="GS14" t="n">
         <v>118.3</v>
@@ -17197,19 +17238,19 @@
         <v>122</v>
       </c>
       <c r="HA14" t="n">
-        <v>112.6</v>
+        <v>112.5</v>
       </c>
       <c r="HB14" t="n">
         <v>108.7</v>
       </c>
       <c r="HC14" t="n">
-        <v>119.5</v>
+        <v>119.6</v>
       </c>
       <c r="HD14" t="n">
         <v>120</v>
       </c>
       <c r="HE14" t="n">
-        <v>122.3</v>
+        <v>122.4</v>
       </c>
       <c r="HF14" t="n">
         <v>120.5</v>
@@ -17224,7 +17265,7 @@
         <v>120.3</v>
       </c>
       <c r="HJ14" t="n">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="HK14" t="n">
         <v>121.8</v>
@@ -17233,19 +17274,19 @@
         <v>126.4</v>
       </c>
       <c r="HM14" t="n">
-        <v>125.6</v>
+        <v>125.5</v>
       </c>
       <c r="HN14" t="n">
         <v>126.6</v>
       </c>
       <c r="HO14" t="n">
-        <v>128.5</v>
+        <v>128.6</v>
       </c>
       <c r="HP14" t="n">
         <v>132.6</v>
       </c>
       <c r="HQ14" t="n">
-        <v>134.7</v>
+        <v>134.8</v>
       </c>
       <c r="HR14" t="n">
         <v>123.2</v>
@@ -17263,22 +17304,22 @@
         <v>137.7</v>
       </c>
       <c r="HW14" t="n">
-        <v>134</v>
+        <v>133.9</v>
       </c>
       <c r="HX14" t="n">
         <v>136.9</v>
       </c>
       <c r="HY14" t="n">
-        <v>139.3</v>
+        <v>139.2</v>
       </c>
       <c r="HZ14" t="n">
         <v>138.8</v>
       </c>
       <c r="IA14" t="n">
-        <v>144.7</v>
+        <v>144.8</v>
       </c>
       <c r="IB14" t="n">
-        <v>141.3</v>
+        <v>141.4</v>
       </c>
       <c r="IC14" t="n">
         <v>140.7</v>
@@ -17302,7 +17343,7 @@
         <v>142.6</v>
       </c>
       <c r="IJ14" t="n">
-        <v>135.7</v>
+        <v>135.6</v>
       </c>
       <c r="IK14" t="n">
         <v>135.6</v>
@@ -17311,7 +17352,7 @@
         <v>138.3</v>
       </c>
       <c r="IM14" t="n">
-        <v>133</v>
+        <v>133.1</v>
       </c>
       <c r="IN14" t="n">
         <v>127.1</v>
@@ -17338,22 +17379,22 @@
         <v>110.8</v>
       </c>
       <c r="IV14" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="IW14" t="n">
         <v>111.2</v>
       </c>
       <c r="IX14" t="n">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="IY14" t="n">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="IZ14" t="n">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="JA14" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="JB14" t="n">
         <v>109.1</v>
@@ -17377,19 +17418,19 @@
         <v>107.8</v>
       </c>
       <c r="JI14" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="JJ14" t="n">
         <v>104.8</v>
       </c>
       <c r="JK14" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="JL14" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="JM14" t="n">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="JN14" t="n">
         <v>108.4</v>
@@ -17404,37 +17445,37 @@
         <v>102.7</v>
       </c>
       <c r="JR14" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="JS14" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="JT14" t="n">
         <v>109.5</v>
       </c>
       <c r="JU14" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="JV14" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="JW14" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="JX14" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="JX14" t="n">
-        <v>92.8</v>
-      </c>
       <c r="JY14" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="JZ14" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="KA14" t="n">
         <v>100</v>
       </c>
       <c r="KB14" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="KC14" t="n">
         <v>108.7</v>
@@ -17446,22 +17487,22 @@
         <v>113.5</v>
       </c>
       <c r="KF14" t="n">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="KG14" t="n">
-        <v>116.3</v>
+        <v>116.2</v>
       </c>
       <c r="KH14" t="n">
-        <v>120.9</v>
+        <v>120.8</v>
       </c>
       <c r="KI14" t="n">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="KJ14" t="n">
-        <v>118.9</v>
+        <v>119</v>
       </c>
       <c r="KK14" t="n">
-        <v>117.3</v>
+        <v>117.4</v>
       </c>
       <c r="KL14" t="n">
         <v>116.5</v>
@@ -17482,22 +17523,22 @@
         <v>125.2</v>
       </c>
       <c r="KR14" t="n">
-        <v>121.4</v>
+        <v>121.3</v>
       </c>
       <c r="KS14" t="n">
-        <v>123.7</v>
+        <v>123.6</v>
       </c>
       <c r="KT14" t="n">
-        <v>117.1</v>
+        <v>117</v>
       </c>
       <c r="KU14" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="KV14" t="n">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="KW14" t="n">
-        <v>116.9</v>
+        <v>117</v>
       </c>
       <c r="KX14" t="n">
         <v>114.8</v>
@@ -17521,25 +17562,25 @@
         <v>97.59999999999999</v>
       </c>
       <c r="LE14" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="LF14" t="n">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="LG14" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="LH14" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="LI14" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="LJ14" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="LK14" t="n">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="LL14" t="n">
         <v>83.3</v>
@@ -17548,25 +17589,25 @@
         <v>86.3</v>
       </c>
       <c r="LN14" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="LO14" t="n">
         <v>81.2</v>
       </c>
       <c r="LP14" t="n">
-        <v>74.90000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="LQ14" t="n">
-        <v>91.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="LR14" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="LS14" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="LT14" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="LU14" t="n">
         <v>107.7</v>
@@ -17575,37 +17616,37 @@
         <v>107.5</v>
       </c>
       <c r="LW14" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="LX14" t="n">
         <v>110.7</v>
       </c>
       <c r="LY14" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="LZ14" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="MA14" t="n">
-        <v>90</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="MB14" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="MC14" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="MD14" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="ME14" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="MF14" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="MG14" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="MH14" t="n">
         <v>101</v>
@@ -17617,40 +17658,40 @@
         <v>99.7</v>
       </c>
       <c r="MK14" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="ML14" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="MM14" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="MN14" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="MO14" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="MP14" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="MQ14" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="MR14" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="MS14" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="MT14" t="n">
         <v>78.3</v>
       </c>
       <c r="MU14" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="MV14" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="MW14" t="n">
         <v>83.8</v>
@@ -17662,31 +17703,31 @@
         <v>92.90000000000001</v>
       </c>
       <c r="MZ14" t="n">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="NA14" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="NB14" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="NC14" t="n">
+        <v>60</v>
+      </c>
+      <c r="ND14" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="NE14" t="n">
         <v>76.2</v>
       </c>
-      <c r="NB14" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="NC14" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="ND14" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="NE14" t="n">
-        <v>76.09999999999999</v>
-      </c>
       <c r="NF14" t="n">
-        <v>71.8</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="NG14" t="n">
         <v>80</v>
       </c>
       <c r="NH14" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="NI14" t="n">
         <v>75.09999999999999</v>
@@ -17698,64 +17739,64 @@
         <v>77.59999999999999</v>
       </c>
       <c r="NL14" t="n">
-        <v>71.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="NM14" t="n">
-        <v>70.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="NN14" t="n">
-        <v>69.40000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="NO14" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="NP14" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="NQ14" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="NR14" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="NS14" t="n">
         <v>91.8</v>
       </c>
       <c r="NT14" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="NU14" t="n">
         <v>92.3</v>
       </c>
       <c r="NV14" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="NW14" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="NX14" t="n">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="NY14" t="n">
-        <v>115.2</v>
+        <v>115</v>
       </c>
       <c r="NZ14" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="OA14" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="OB14" t="n">
         <v>121.3</v>
       </c>
-      <c r="OA14" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="OB14" t="n">
-        <v>121.2</v>
-      </c>
       <c r="OC14" t="n">
-        <v>111.7</v>
+        <v>111.9</v>
       </c>
       <c r="OD14" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="OE14" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="OF14" t="n">
         <v>110.1</v>
@@ -17764,37 +17805,37 @@
         <v>104.6</v>
       </c>
       <c r="OH14" t="n">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="OI14" t="n">
-        <v>130.4</v>
+        <v>130.3</v>
       </c>
       <c r="OJ14" t="n">
-        <v>140.1</v>
+        <v>140</v>
       </c>
       <c r="OK14" t="n">
-        <v>133.2</v>
+        <v>133</v>
       </c>
       <c r="OL14" t="n">
-        <v>131.2</v>
+        <v>131</v>
       </c>
       <c r="OM14" t="n">
-        <v>138.5</v>
+        <v>138.6</v>
       </c>
       <c r="ON14" t="n">
-        <v>126.9</v>
+        <v>127</v>
       </c>
       <c r="OO14" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="OP14" t="n">
-        <v>138.5</v>
+        <v>138.6</v>
       </c>
       <c r="OQ14" t="n">
-        <v>145.5</v>
+        <v>145.6</v>
       </c>
       <c r="OR14" t="n">
-        <v>157.1</v>
+        <v>157.2</v>
       </c>
       <c r="OS14" t="n">
         <v>147.2</v>
@@ -17803,139 +17844,139 @@
         <v>144</v>
       </c>
       <c r="OU14" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="OV14" t="n">
         <v>139.7</v>
       </c>
-      <c r="OV14" t="n">
-        <v>139.9</v>
-      </c>
       <c r="OW14" t="n">
-        <v>140</v>
+        <v>139.8</v>
       </c>
       <c r="OX14" t="n">
-        <v>133.5</v>
+        <v>133.3</v>
       </c>
       <c r="OY14" t="n">
-        <v>134.4</v>
+        <v>134.6</v>
       </c>
       <c r="OZ14" t="n">
-        <v>128.8</v>
+        <v>129</v>
       </c>
       <c r="PA14" t="n">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="PB14" t="n">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="PC14" t="n">
-        <v>122.6</v>
+        <v>122.7</v>
       </c>
       <c r="PD14" t="n">
-        <v>122.1</v>
+        <v>122.2</v>
       </c>
       <c r="PE14" t="n">
         <v>126.9</v>
       </c>
       <c r="PF14" t="n">
-        <v>123.8</v>
+        <v>123.7</v>
       </c>
       <c r="PG14" t="n">
-        <v>117</v>
+        <v>116.9</v>
       </c>
       <c r="PH14" t="n">
-        <v>123.6</v>
+        <v>123.5</v>
       </c>
       <c r="PI14" t="n">
-        <v>123.2</v>
+        <v>122.9</v>
       </c>
       <c r="PJ14" t="n">
-        <v>124.2</v>
+        <v>123.9</v>
       </c>
       <c r="PK14" t="n">
-        <v>122.5</v>
+        <v>122.7</v>
       </c>
       <c r="PL14" t="n">
-        <v>120.8</v>
+        <v>121</v>
       </c>
       <c r="PM14" t="n">
-        <v>126.8</v>
+        <v>126.9</v>
       </c>
       <c r="PN14" t="n">
-        <v>141.4</v>
+        <v>141.5</v>
       </c>
       <c r="PO14" t="n">
-        <v>139</v>
+        <v>139.1</v>
       </c>
       <c r="PP14" t="n">
-        <v>141.8</v>
+        <v>141.9</v>
       </c>
       <c r="PQ14" t="n">
         <v>141.6</v>
       </c>
       <c r="PR14" t="n">
-        <v>141</v>
+        <v>140.9</v>
       </c>
       <c r="PS14" t="n">
-        <v>142.8</v>
+        <v>142.7</v>
       </c>
       <c r="PT14" t="n">
-        <v>143.2</v>
+        <v>143.1</v>
       </c>
       <c r="PU14" t="n">
-        <v>144.4</v>
+        <v>144.2</v>
       </c>
       <c r="PV14" t="n">
-        <v>134.4</v>
+        <v>134.1</v>
       </c>
       <c r="PW14" t="n">
-        <v>138.6</v>
+        <v>138.8</v>
       </c>
       <c r="PX14" t="n">
-        <v>140.1</v>
+        <v>140.3</v>
       </c>
       <c r="PY14" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="PZ14" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="QA14" t="n">
         <v>131.6</v>
-      </c>
-      <c r="PZ14" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="QA14" t="n">
-        <v>131.5</v>
       </c>
       <c r="QB14" t="n">
         <v>128.7</v>
       </c>
       <c r="QC14" t="n">
-        <v>121.9</v>
+        <v>121.8</v>
       </c>
       <c r="QD14" t="n">
         <v>124</v>
       </c>
       <c r="QE14" t="n">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="QF14" t="n">
-        <v>120.4</v>
+        <v>120.2</v>
       </c>
       <c r="QG14" t="n">
-        <v>122.9</v>
+        <v>122.6</v>
       </c>
       <c r="QH14" t="n">
-        <v>121.6</v>
+        <v>121.3</v>
       </c>
       <c r="QI14" t="n">
-        <v>121.7</v>
+        <v>122</v>
       </c>
       <c r="QJ14" t="n">
-        <v>134.3</v>
+        <v>134.5</v>
       </c>
       <c r="QK14" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="QL14" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="QM14" t="n">
         <v>123.4</v>
-      </c>
-      <c r="QL14" t="n">
-        <v>120</v>
-      </c>
-      <c r="QM14" t="n">
-        <v>123.3</v>
       </c>
       <c r="QN14" t="n">
         <v>110.4</v>
@@ -17944,32 +17985,32 @@
         <v>115</v>
       </c>
       <c r="QP14" t="n">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="QQ14" t="n">
-        <v>120.2</v>
+        <v>120.1</v>
       </c>
       <c r="QR14" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="QS14" t="inlineStr"/>
       <c r="QT14" t="n">
-        <v>68.7</v>
+        <v>68.3</v>
       </c>
       <c r="QU14" t="n">
-        <v>79.2</v>
+        <v>79.5</v>
       </c>
       <c r="QV14" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="QW14" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="QX14" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="QY14" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="QZ14" t="n">
         <v>71.09999999999999</v>
@@ -17978,34 +18019,34 @@
         <v>80.7</v>
       </c>
       <c r="RB14" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="RC14" t="n">
-        <v>90.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="RD14" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="RE14" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="RF14" t="n">
-        <v>114.6</v>
+        <v>114.2</v>
       </c>
       <c r="RG14" t="n">
-        <v>122.3</v>
+        <v>122.6</v>
       </c>
       <c r="RH14" t="n">
-        <v>127.4</v>
+        <v>127.6</v>
       </c>
       <c r="RI14" t="n">
-        <v>131.8</v>
+        <v>132</v>
       </c>
       <c r="RJ14" t="n">
-        <v>138.7</v>
+        <v>138.9</v>
       </c>
       <c r="RK14" t="n">
-        <v>143.4</v>
+        <v>143.5</v>
       </c>
       <c r="RL14" t="n">
         <v>141.1</v>
@@ -18017,16 +18058,19 @@
         <v>123.2</v>
       </c>
       <c r="RO14" t="n">
-        <v>128.5</v>
+        <v>128.4</v>
       </c>
       <c r="RP14" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="RQ14" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="RR14" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
+      </c>
+      <c r="RS14" t="n">
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -19176,6 +19220,9 @@
       <c r="RR15" t="n">
         <v>99.7</v>
       </c>
+      <c r="RS15" t="n">
+        <v>91.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -20324,6 +20371,9 @@
       <c r="RR16" t="n">
         <v>104.8</v>
       </c>
+      <c r="RS16" t="n">
+        <v>98.09999999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -21472,6 +21522,9 @@
       <c r="RR17" t="n">
         <v>104.6</v>
       </c>
+      <c r="RS17" t="n">
+        <v>97.90000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -22620,6 +22673,9 @@
       <c r="RR18" t="n">
         <v>109.7</v>
       </c>
+      <c r="RS18" t="n">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -22898,13 +22954,13 @@
         <v>104.3</v>
       </c>
       <c r="GN19" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="GO19" t="n">
         <v>107</v>
       </c>
       <c r="GP19" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="GQ19" t="n">
         <v>110.5</v>
@@ -22916,7 +22972,7 @@
         <v>102.3</v>
       </c>
       <c r="GT19" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="GU19" t="n">
         <v>104.3</v>
@@ -22934,16 +22990,16 @@
         <v>105.4</v>
       </c>
       <c r="GZ19" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="HA19" t="n">
         <v>102.8</v>
       </c>
       <c r="HB19" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="HC19" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="HD19" t="n">
         <v>102.7</v>
@@ -22970,16 +23026,16 @@
         <v>104.8</v>
       </c>
       <c r="HL19" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="HM19" t="n">
         <v>105.1</v>
       </c>
       <c r="HN19" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="HO19" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="HP19" t="n">
         <v>106.5</v>
@@ -23006,16 +23062,16 @@
         <v>103.8</v>
       </c>
       <c r="HX19" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="HY19" t="n">
         <v>107</v>
       </c>
       <c r="HZ19" t="n">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="IA19" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="IB19" t="n">
         <v>106.1</v>
@@ -23042,16 +23098,16 @@
         <v>109.5</v>
       </c>
       <c r="IJ19" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="IK19" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="IL19" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="IM19" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="IN19" t="n">
         <v>99.8</v>
@@ -23078,25 +23134,25 @@
         <v>89.2</v>
       </c>
       <c r="IV19" t="n">
-        <v>91.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="IW19" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="IX19" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="IY19" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="IZ19" t="n">
         <v>90.7</v>
       </c>
       <c r="JA19" t="n">
-        <v>92.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="JB19" t="n">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="JC19" t="n">
         <v>88.59999999999999</v>
@@ -23114,22 +23170,22 @@
         <v>84.40000000000001</v>
       </c>
       <c r="JH19" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="JI19" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="JJ19" t="n">
         <v>89.2</v>
       </c>
       <c r="JK19" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="JL19" t="n">
         <v>88.5</v>
       </c>
       <c r="JM19" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="JN19" t="n">
         <v>89.3</v>
@@ -23150,22 +23206,22 @@
         <v>91.3</v>
       </c>
       <c r="JT19" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="JU19" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="JV19" t="n">
         <v>91.40000000000001</v>
       </c>
       <c r="JW19" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="JX19" t="n">
-        <v>91.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="JY19" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="JZ19" t="n">
         <v>94.5</v>
@@ -23186,22 +23242,22 @@
         <v>96.8</v>
       </c>
       <c r="KF19" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="KG19" t="n">
         <v>97.7</v>
       </c>
       <c r="KH19" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="KI19" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="KJ19" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="KK19" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="KL19" t="n">
         <v>99.59999999999999</v>
@@ -23222,25 +23278,25 @@
         <v>103.6</v>
       </c>
       <c r="KR19" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="KS19" t="n">
         <v>101.1</v>
       </c>
       <c r="KT19" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="KU19" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="KV19" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KW19" t="n">
         <v>102.5</v>
       </c>
       <c r="KX19" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KY19" t="n">
         <v>97.2</v>
@@ -23264,13 +23320,13 @@
         <v>94.5</v>
       </c>
       <c r="LF19" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="LG19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="LH19" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="LI19" t="n">
         <v>92.59999999999999</v>
@@ -23279,7 +23335,7 @@
         <v>92.8</v>
       </c>
       <c r="LK19" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="LL19" t="n">
         <v>90.5</v>
@@ -23297,16 +23353,16 @@
         <v>96.8</v>
       </c>
       <c r="LQ19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="LR19" t="n">
         <v>97.8</v>
       </c>
       <c r="LS19" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="LT19" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="LU19" t="n">
         <v>102.6</v>
@@ -23324,7 +23380,7 @@
         <v>102</v>
       </c>
       <c r="LZ19" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="MA19" t="n">
         <v>98.09999999999999</v>
@@ -23333,16 +23389,16 @@
         <v>99.7</v>
       </c>
       <c r="MC19" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="MD19" t="n">
         <v>100</v>
       </c>
       <c r="ME19" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="MF19" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="MG19" t="n">
         <v>100.7</v>
@@ -23366,16 +23422,16 @@
         <v>100.2</v>
       </c>
       <c r="MN19" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="MO19" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="MP19" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="MQ19" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="MR19" t="n">
         <v>104.7</v>
@@ -23402,16 +23458,16 @@
         <v>93.40000000000001</v>
       </c>
       <c r="MZ19" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="NA19" t="n">
         <v>88.59999999999999</v>
       </c>
       <c r="NB19" t="n">
-        <v>89.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="NC19" t="n">
-        <v>89</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="ND19" t="n">
         <v>88.40000000000001</v>
@@ -23444,10 +23500,10 @@
         <v>85.3</v>
       </c>
       <c r="NN19" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="NO19" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="NP19" t="n">
         <v>87.90000000000001</v>
@@ -23456,7 +23512,7 @@
         <v>91.09999999999999</v>
       </c>
       <c r="NR19" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="NS19" t="n">
         <v>91.09999999999999</v>
@@ -23483,7 +23539,7 @@
         <v>98</v>
       </c>
       <c r="OA19" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="OB19" t="n">
         <v>100.3</v>
@@ -23492,7 +23548,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="OD19" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="OE19" t="n">
         <v>92.90000000000001</v>
@@ -23507,7 +23563,7 @@
         <v>96.2</v>
       </c>
       <c r="OI19" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="OJ19" t="n">
         <v>103.9</v>
@@ -23516,10 +23572,10 @@
         <v>103.5</v>
       </c>
       <c r="OL19" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="OM19" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="ON19" t="n">
         <v>102</v>
@@ -23528,7 +23584,7 @@
         <v>101.3</v>
       </c>
       <c r="OP19" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="OQ19" t="n">
         <v>109.2</v>
@@ -23543,31 +23599,31 @@
         <v>112.3</v>
       </c>
       <c r="OU19" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="OV19" t="n">
         <v>112.6</v>
       </c>
       <c r="OW19" t="n">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="OX19" t="n">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="OY19" t="n">
-        <v>110.4</v>
+        <v>110.6</v>
       </c>
       <c r="OZ19" t="n">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="PA19" t="n">
         <v>111.6</v>
       </c>
       <c r="PB19" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="PC19" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="PD19" t="n">
         <v>103.1</v>
@@ -23579,28 +23635,28 @@
         <v>106.4</v>
       </c>
       <c r="PG19" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="PH19" t="n">
         <v>104</v>
       </c>
       <c r="PI19" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="PJ19" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="PK19" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="PL19" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="PM19" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="PN19" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="PO19" t="n">
         <v>113.2</v>
@@ -23615,28 +23671,28 @@
         <v>112.1</v>
       </c>
       <c r="PS19" t="n">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="PT19" t="n">
         <v>115</v>
       </c>
       <c r="PU19" t="n">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="PV19" t="n">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="PW19" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="PX19" t="n">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="PY19" t="n">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="PZ19" t="n">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="QA19" t="n">
         <v>114.3</v>
@@ -23645,7 +23701,7 @@
         <v>111.5</v>
       </c>
       <c r="QC19" t="n">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="QD19" t="n">
         <v>111</v>
@@ -23660,19 +23716,19 @@
         <v>109.5</v>
       </c>
       <c r="QH19" t="n">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="QI19" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="QJ19" t="n">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="QK19" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="QL19" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="QM19" t="n">
         <v>109.9</v>
@@ -23684,7 +23740,7 @@
         <v>108.2</v>
       </c>
       <c r="QP19" t="n">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="QQ19" t="n">
         <v>110.5</v>
@@ -23694,19 +23750,19 @@
       </c>
       <c r="QS19" t="inlineStr"/>
       <c r="QT19" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="QU19" t="n">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="QV19" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="QW19" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="QX19" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="QY19" t="n">
         <v>101.9</v>
@@ -23718,7 +23774,7 @@
         <v>101.4</v>
       </c>
       <c r="RB19" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="RC19" t="n">
         <v>100.9</v>
@@ -23727,22 +23783,22 @@
         <v>98.3</v>
       </c>
       <c r="RE19" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="RF19" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="RG19" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="RH19" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="RI19" t="n">
         <v>112.2</v>
       </c>
-      <c r="RI19" t="n">
-        <v>112.1</v>
-      </c>
       <c r="RJ19" t="n">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="RK19" t="n">
         <v>113.7</v>
@@ -23754,7 +23810,7 @@
         <v>117.6</v>
       </c>
       <c r="RN19" t="n">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="RO19" t="n">
         <v>109.5</v>
@@ -23763,10 +23819,13 @@
         <v>109.5</v>
       </c>
       <c r="RQ19" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="RR19" t="n">
-        <v>103.1</v>
+        <v>103</v>
+      </c>
+      <c r="RS19" t="n">
+        <v>98.8</v>
       </c>
     </row>
     <row r="20">
@@ -24916,6 +24975,9 @@
       <c r="RR20" t="n">
         <v>102.9</v>
       </c>
+      <c r="RS20" t="n">
+        <v>98.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -26064,6 +26126,9 @@
       <c r="RR21" t="n">
         <v>102.2</v>
       </c>
+      <c r="RS21" t="n">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -27212,6 +27277,9 @@
       <c r="RR22" t="n">
         <v>99.8</v>
       </c>
+      <c r="RS22" t="n">
+        <v>98.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -28360,6 +28428,9 @@
       <c r="RR23" t="n">
         <v>103.1</v>
       </c>
+      <c r="RS23" t="n">
+        <v>100.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -28647,10 +28718,10 @@
         <v>120.3</v>
       </c>
       <c r="GQ24" t="n">
-        <v>117.9</v>
+        <v>118</v>
       </c>
       <c r="GR24" t="n">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="GS24" t="n">
         <v>109</v>
@@ -28683,7 +28754,7 @@
         <v>105.5</v>
       </c>
       <c r="HC24" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="HD24" t="n">
         <v>111.6</v>
@@ -28719,7 +28790,7 @@
         <v>112.3</v>
       </c>
       <c r="HO24" t="n">
-        <v>117.3</v>
+        <v>117.4</v>
       </c>
       <c r="HP24" t="n">
         <v>117.7</v>
@@ -28896,7 +28967,7 @@
         <v>103.8</v>
       </c>
       <c r="JV24" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="JW24" t="n">
         <v>102</v>
@@ -28923,7 +28994,7 @@
         <v>107.1</v>
       </c>
       <c r="KE24" t="n">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="KF24" t="n">
         <v>107.2</v>
@@ -28932,7 +29003,7 @@
         <v>106.8</v>
       </c>
       <c r="KH24" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="KI24" t="n">
         <v>105.4</v>
@@ -28962,16 +29033,16 @@
         <v>111.8</v>
       </c>
       <c r="KR24" t="n">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="KS24" t="n">
         <v>105.9</v>
       </c>
       <c r="KT24" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="KU24" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="KV24" t="n">
         <v>103</v>
@@ -29004,10 +29075,10 @@
         <v>99.59999999999999</v>
       </c>
       <c r="LF24" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="LG24" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="LH24" t="n">
         <v>94.40000000000001</v>
@@ -29031,7 +29102,7 @@
         <v>93.8</v>
       </c>
       <c r="LO24" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="LP24" t="n">
         <v>87.40000000000001</v>
@@ -29082,7 +29153,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="MF24" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="MG24" t="n">
         <v>101.7</v>
@@ -29118,7 +29189,7 @@
         <v>99</v>
       </c>
       <c r="MR24" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="MS24" t="n">
         <v>86.3</v>
@@ -29154,7 +29225,7 @@
         <v>74.59999999999999</v>
       </c>
       <c r="ND24" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="NE24" t="n">
         <v>82.5</v>
@@ -29184,7 +29255,7 @@
         <v>80.90000000000001</v>
       </c>
       <c r="NN24" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="NO24" t="n">
         <v>102.2</v>
@@ -29211,7 +29282,7 @@
         <v>103.6</v>
       </c>
       <c r="NW24" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="NX24" t="n">
         <v>104.4</v>
@@ -29259,13 +29330,13 @@
         <v>111.9</v>
       </c>
       <c r="OM24" t="n">
-        <v>117.9</v>
+        <v>118</v>
       </c>
       <c r="ON24" t="n">
         <v>113</v>
       </c>
       <c r="OO24" t="n">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="OP24" t="n">
         <v>118.3</v>
@@ -29304,7 +29375,7 @@
         <v>115.8</v>
       </c>
       <c r="PB24" t="n">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="PC24" t="n">
         <v>110.5</v>
@@ -29328,7 +29399,7 @@
         <v>110</v>
       </c>
       <c r="PJ24" t="n">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="PK24" t="n">
         <v>105</v>
@@ -29361,7 +29432,7 @@
         <v>120.5</v>
       </c>
       <c r="PU24" t="n">
-        <v>119.9</v>
+        <v>119.8</v>
       </c>
       <c r="PV24" t="n">
         <v>117.3</v>
@@ -29412,7 +29483,7 @@
         <v>111.6</v>
       </c>
       <c r="QL24" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="QM24" t="n">
         <v>113.5</v>
@@ -29427,7 +29498,7 @@
         <v>113.6</v>
       </c>
       <c r="QQ24" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="QR24" t="n">
         <v>93</v>
@@ -29437,7 +29508,7 @@
         <v>87</v>
       </c>
       <c r="QU24" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="QV24" t="n">
         <v>98.7</v>
@@ -29473,7 +29544,7 @@
         <v>120.9</v>
       </c>
       <c r="RG24" t="n">
-        <v>120.9</v>
+        <v>121</v>
       </c>
       <c r="RH24" t="n">
         <v>123</v>
@@ -29507,6 +29578,9 @@
       </c>
       <c r="RR24" t="n">
         <v>94</v>
+      </c>
+      <c r="RS24" t="n">
+        <v>94.8</v>
       </c>
     </row>
     <row r="25">
@@ -30656,6 +30730,9 @@
       <c r="RR25" t="n">
         <v>100.7</v>
       </c>
+      <c r="RS25" t="n">
+        <v>96.09999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -31804,6 +31881,9 @@
       <c r="RR26" t="n">
         <v>99.3</v>
       </c>
+      <c r="RS26" t="n">
+        <v>100.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
